--- a/CarDealersSystem/Excell Reports/Report.xlsx
+++ b/CarDealersSystem/Excell Reports/Report.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="false">
       <selection activeCell="H11" sqref="H11"/>
@@ -450,6 +450,159 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -457,7 +610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="H8" sqref="H8"/>
@@ -551,6 +704,204 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>69000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>69000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>69000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>92000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>92000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>92000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CarDealersSystem/Excell Reports/Report.xlsx
+++ b/CarDealersSystem/Excell Reports/Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs" sheetId="1" r:id="rId1"/>
@@ -375,10 +375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="false">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,159 +450,6 @@
         </is>
       </c>
     </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0" t="inlineStr">
-        <is>
-          <t>Opel Astra</t>
-        </is>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>Break fluid leak</t>
-        </is>
-      </c>
-      <c r="C5" s="0" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0" t="inlineStr">
-        <is>
-          <t>Opel Corsa</t>
-        </is>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>Engine problem</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="0" t="inlineStr">
-        <is>
-          <t>Mitsubishi Space Star</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>Thick-Thick Steering Wheel Sounds</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="0" t="inlineStr">
-        <is>
-          <t>Opel Astra</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>Break fluid leak</t>
-        </is>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>Opel Corsa</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>Engine problem</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="0" t="inlineStr">
-        <is>
-          <t>Mitsubishi Space Star</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>Thick-Thick Steering Wheel Sounds</t>
-        </is>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="11">
-      <c r="A11" s="0" t="inlineStr">
-        <is>
-          <t>Opel Astra</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>Break fluid leak</t>
-        </is>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>Opel Corsa</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>Engine problem</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>Mitsubishi Space Star</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>Thick-Thick Steering Wheel Sounds</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -610,10 +457,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A22" workbookViewId="0" rightToLeft="false">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,110 +488,110 @@
     <row outlineLevel="0" r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Astra</t>
+          <t>S7</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>Audi</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>920000</t>
+          <t>315000</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>Astra</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>Bmw</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>920000</t>
+          <t>896000</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Astra</t>
+          <t>A4</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>Audi</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>920000</t>
+          <t>336000</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Astra</t>
+          <t>Golf4</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>Vw</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>69000</t>
+          <t>140000</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Astra</t>
+          <t>Corolla</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>Toyota</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>69000</t>
+          <t>56000</t>
         </is>
       </c>
     </row>
@@ -761,41 +608,41 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>69000</t>
+          <t>210000</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>Astra</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>Pegeout</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>92000</t>
+          <t>126000</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>Astra</t>
+          <t>Corsa</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -805,100 +652,56 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>92000</t>
+          <t>31500</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>Astra</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>Pegeout</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>92000</t>
+          <t>49000</t>
         </is>
       </c>
     </row>
     <row outlineLevel="0" r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>Corsa</t>
+          <t>80</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Opel</t>
+          <t>Audi</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>46000</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="12">
-      <c r="A12" s="0" t="inlineStr">
-        <is>
-          <t>Corsa</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="inlineStr">
-        <is>
-          <t>Opel</t>
-        </is>
-      </c>
-      <c r="C12" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>46000</t>
-        </is>
-      </c>
-    </row>
-    <row outlineLevel="0" r="13">
-      <c r="A13" s="0" t="inlineStr">
-        <is>
-          <t>Corsa</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>Opel</t>
-        </is>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>46000</t>
+          <t>70000</t>
         </is>
       </c>
     </row>

--- a/CarDealersSystem/Excell Reports/Report.xlsx
+++ b/CarDealersSystem/Excell Reports/Report.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="F13" sqref="F13"/>
@@ -450,6 +450,720 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>Opel Astra</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Break fluid leak</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>Opel Corsa</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Engine problem</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>Mitsubishi Space Star</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Thick-Thick Steering Wheel Sounds</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -457,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C12" sqref="C12"/>
@@ -705,6 +1419,2734 @@
         </is>
       </c>
     </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>360000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>1024000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>384000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>160000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>64000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>240000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>144000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>36000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>56000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>405000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>1152000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>432000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>180000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>72000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>270000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>162000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>40500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>63000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>450000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>1280000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>480000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>200000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>300000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>180000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>100000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>32000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>32000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="47">
+      <c r="A47" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B47" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C47" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D47" s="0" t="inlineStr">
+        <is>
+          <t>128000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="48">
+      <c r="A48" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B48" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C48" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D48" s="0" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="49">
+      <c r="A49" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B49" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D49" s="0" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="50">
+      <c r="A50" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B50" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D50" s="0" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="51">
+      <c r="A51" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B51" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D51" s="0" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="52">
+      <c r="A52" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B52" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C52" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D52" s="0" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="53">
+      <c r="A53" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B53" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C53" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D53" s="0" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="54">
+      <c r="A54" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B54" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C54" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D54" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="55">
+      <c r="A55" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B55" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C55" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D55" s="0" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="56">
+      <c r="A56" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B56" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C56" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D56" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="57">
+      <c r="A57" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B57" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C57" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D57" s="0" t="inlineStr">
+        <is>
+          <t>128000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="58">
+      <c r="A58" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D58" s="0" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="59">
+      <c r="A59" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D59" s="0" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="60">
+      <c r="A60" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D60" s="0" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="61">
+      <c r="A61" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B61" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C61" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D61" s="0" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="62">
+      <c r="A62" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B62" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C62" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D62" s="0" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="63">
+      <c r="A63" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B63" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C63" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D63" s="0" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="64">
+      <c r="A64" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B64" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C64" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D64" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="65">
+      <c r="A65" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B65" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C65" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D65" s="0" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="66">
+      <c r="A66" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B66" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C66" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D66" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="67">
+      <c r="A67" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B67" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C67" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D67" s="0" t="inlineStr">
+        <is>
+          <t>128000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="68">
+      <c r="A68" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B68" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C68" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D68" s="0" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="69">
+      <c r="A69" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B69" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C69" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D69" s="0" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="70">
+      <c r="A70" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B70" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C70" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D70" s="0" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="71">
+      <c r="A71" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B71" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C71" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D71" s="0" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="72">
+      <c r="A72" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B72" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C72" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D72" s="0" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="73">
+      <c r="A73" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B73" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C73" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D73" s="0" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="74">
+      <c r="A74" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B74" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C74" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D74" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="75">
+      <c r="A75" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B75" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C75" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D75" s="0" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="76">
+      <c r="A76" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B76" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="77">
+      <c r="A77" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B77" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>128000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="78">
+      <c r="A78" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B78" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="79">
+      <c r="A79" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B79" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="80">
+      <c r="A80" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B80" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="81">
+      <c r="A81" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B81" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C81" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D81" s="0" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="82">
+      <c r="A82" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B82" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C82" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D82" s="0" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="83">
+      <c r="A83" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B83" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C83" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D83" s="0" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="84">
+      <c r="A84" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B84" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C84" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D84" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="85">
+      <c r="A85" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B85" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C85" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D85" s="0" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="86">
+      <c r="A86" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B86" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C86" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D86" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="87">
+      <c r="A87" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B87" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C87" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D87" s="0" t="inlineStr">
+        <is>
+          <t>128000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="88">
+      <c r="A88" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B88" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C88" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D88" s="0" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="89">
+      <c r="A89" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B89" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C89" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D89" s="0" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="90">
+      <c r="A90" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B90" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C90" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D90" s="0" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="91">
+      <c r="A91" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B91" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C91" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D91" s="0" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="92">
+      <c r="A92" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B92" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C92" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D92" s="0" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="93">
+      <c r="A93" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B93" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C93" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D93" s="0" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="94">
+      <c r="A94" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B94" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C94" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D94" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="95">
+      <c r="A95" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B95" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C95" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D95" s="0" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="96">
+      <c r="A96" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B96" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C96" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D96" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="97">
+      <c r="A97" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B97" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C97" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D97" s="0" t="inlineStr">
+        <is>
+          <t>128000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="98">
+      <c r="A98" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B98" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C98" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D98" s="0" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="99">
+      <c r="A99" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B99" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C99" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D99" s="0" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="100">
+      <c r="A100" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B100" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C100" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D100" s="0" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="101">
+      <c r="A101" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B101" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C101" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D101" s="0" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="102">
+      <c r="A102" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B102" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C102" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D102" s="0" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="103">
+      <c r="A103" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B103" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C103" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D103" s="0" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="104">
+      <c r="A104" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B104" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C104" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D104" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="105">
+      <c r="A105" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B105" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C105" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D105" s="0" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="106">
+      <c r="A106" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B106" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C106" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D106" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="107">
+      <c r="A107" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B107" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C107" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D107" s="0" t="inlineStr">
+        <is>
+          <t>128000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="108">
+      <c r="A108" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B108" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C108" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D108" s="0" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="109">
+      <c r="A109" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B109" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C109" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D109" s="0" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="110">
+      <c r="A110" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B110" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C110" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D110" s="0" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="111">
+      <c r="A111" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B111" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C111" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D111" s="0" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="112">
+      <c r="A112" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B112" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C112" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D112" s="0" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="113">
+      <c r="A113" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B113" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C113" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D113" s="0" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="114">
+      <c r="A114" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B114" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C114" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D114" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="115">
+      <c r="A115" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B115" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C115" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D115" s="0" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="116">
+      <c r="A116" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B116" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C116" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D116" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="117">
+      <c r="A117" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B117" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>128000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="118">
+      <c r="A118" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B118" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C118" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D118" s="0" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="119">
+      <c r="A119" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B119" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C119" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D119" s="0" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="120">
+      <c r="A120" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B120" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C120" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D120" s="0" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="121">
+      <c r="A121" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B121" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C121" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D121" s="0" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="122">
+      <c r="A122" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B122" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C122" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D122" s="0" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="123">
+      <c r="A123" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B123" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C123" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D123" s="0" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="124">
+      <c r="A124" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B124" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C124" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D124" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="125">
+      <c r="A125" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B125" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C125" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D125" s="0" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="126">
+      <c r="A126" s="0" t="inlineStr">
+        <is>
+          <t>S7</t>
+        </is>
+      </c>
+      <c r="B126" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C126" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D126" s="0" t="inlineStr">
+        <is>
+          <t>45000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="127">
+      <c r="A127" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B127" s="0" t="inlineStr">
+        <is>
+          <t>Bmw</t>
+        </is>
+      </c>
+      <c r="C127" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D127" s="0" t="inlineStr">
+        <is>
+          <t>128000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="128">
+      <c r="A128" s="0" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B128" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C128" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D128" s="0" t="inlineStr">
+        <is>
+          <t>48000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="129">
+      <c r="A129" s="0" t="inlineStr">
+        <is>
+          <t>Golf4</t>
+        </is>
+      </c>
+      <c r="B129" s="0" t="inlineStr">
+        <is>
+          <t>Vw</t>
+        </is>
+      </c>
+      <c r="C129" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D129" s="0" t="inlineStr">
+        <is>
+          <t>20000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="130">
+      <c r="A130" s="0" t="inlineStr">
+        <is>
+          <t>Corolla</t>
+        </is>
+      </c>
+      <c r="B130" s="0" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="C130" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D130" s="0" t="inlineStr">
+        <is>
+          <t>8000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="131">
+      <c r="A131" s="0" t="inlineStr">
+        <is>
+          <t>Astra</t>
+        </is>
+      </c>
+      <c r="B131" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C131" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D131" s="0" t="inlineStr">
+        <is>
+          <t>30000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="132">
+      <c r="A132" s="0" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B132" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C132" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D132" s="0" t="inlineStr">
+        <is>
+          <t>18000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="133">
+      <c r="A133" s="0" t="inlineStr">
+        <is>
+          <t>Corsa</t>
+        </is>
+      </c>
+      <c r="B133" s="0" t="inlineStr">
+        <is>
+          <t>Opel</t>
+        </is>
+      </c>
+      <c r="C133" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D133" s="0" t="inlineStr">
+        <is>
+          <t>4500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="134">
+      <c r="A134" s="0" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B134" s="0" t="inlineStr">
+        <is>
+          <t>Pegeout</t>
+        </is>
+      </c>
+      <c r="C134" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D134" s="0" t="inlineStr">
+        <is>
+          <t>7000</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="135">
+      <c r="A135" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B135" s="0" t="inlineStr">
+        <is>
+          <t>Audi</t>
+        </is>
+      </c>
+      <c r="C135" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D135" s="0" t="inlineStr">
+        <is>
+          <t>10000</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
